--- a/TestSheet.xlsx
+++ b/TestSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lucas\dev\ExcelNativeAot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB759A57-6E36-4D39-96A3-1A5D4976D899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F299DBA-24A1-456A-A86C-F455B98D8650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="3630" windowWidth="21600" windowHeight="11295" xr2:uid="{4EBC4D42-2D58-4169-9394-EEF0CB513A37}"/>
+    <workbookView xWindow="4035" yWindow="3975" windowWidth="21600" windowHeight="11295" xr2:uid="{4EBC4D42-2D58-4169-9394-EEF0CB513A37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Parameter 1</t>
   </si>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Add Double</t>
+  </si>
+  <si>
+    <t>Concat String</t>
+  </si>
+  <si>
+    <t>Get Excel Version (COM)</t>
   </si>
 </sst>
 </file>
@@ -444,52 +456,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93CD4BC4-7D53-45E2-9B39-13598631AA0E}">
-  <dimension ref="B2:D4"/>
+  <dimension ref="B2:E5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.140625" customWidth="1"/>
-    <col min="2" max="3" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="1">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
         <v>2.5</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>3</v>
       </c>
-      <c r="D3" s="1" cm="1">
-        <f t="array" ref="D3">_xll.TestAddDouble(B3,C3)</f>
+      <c r="E3" s="1" cm="1">
+        <f t="array" ref="E3">_xll.TestAddDouble(C3,D3)</f>
         <v>5.5</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="str" cm="1">
-        <f t="array" ref="D4">_xll.TestConcatString(B4,C4)</f>
-        <v>ab</v>
+      <c r="E4" s="1" t="str" cm="1">
+        <f t="array" ref="E4">_xll.TestConcatString(C4,D4)</f>
+        <v>abŵ</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="str" cm="1">
+        <f t="array" ref="E5">_xll.TestVersion()</f>
+        <v>16.0</v>
       </c>
     </row>
   </sheetData>
